--- a/MEDIA/_ 1102_201_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102_201_會計科目餘額明細.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102_201_2020-10-19~2020-10-21)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102_201_2020-10-26~2020-10-29)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>3136790</v>
+        <v>8571381</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201019</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -446,17 +446,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>987307</v>
+        <v>1226790</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4124097</v>
+        <v>9798171</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110266</t>
+          <t>110584</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,17 +487,17 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1284928</v>
+        <v>446508</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5409025</v>
+        <v>10244679</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110332</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/MEDIA/_ 1102_201_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102_201_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102_201_2020-10-26~2020-10-29)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102_201_2020-12-09~2020-12-10)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8571381</v>
+        <v>20176800</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201209</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -446,61 +446,20 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1226790</v>
+        <v>1679304</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9798171</v>
+        <v>21856104</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110584</t>
+          <t>112537</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20201027</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1102  .201     </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>446508</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10244679</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>110649</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
